--- a/biology/Zoologie/Hirondelle_de_Guinée/Hirondelle_de_Guinée.xlsx
+++ b/biology/Zoologie/Hirondelle_de_Guinée/Hirondelle_de_Guinée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_de_Guin%C3%A9e</t>
+          <t>Hirondelle_de_Guinée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirundo lucida
 L'Hirondelle de Guinée (Hirundo lucida) est une espèce de passereau de la famille des Hirundinidae présente en Afrique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_de_Guin%C3%A9e</t>
+          <t>Hirondelle_de_Guinée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur la Mauritanie, le Sénégal, la Gambie, la Guinée-Bissau, la Guinée, le Mali, la Sierra Leone, la Côte d'Ivoire, le Burkina Faso, le Ghana, le Togo, le Bénin, le Nigeria, le Niger, la Guinée équatoriale, le Gabon, la République du Congo, l'est de la République démocratique du Congo, l'Éthiopie et la Somalie. Elle est rare au Liberia et en République centrafricaine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_de_Guin%C3%A9e</t>
+          <t>Hirondelle_de_Guinée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par trois sous-espèces :
 Hirundo lucida lucida Hartlaub, 1858 ;
